--- a/Data Visualization/classement_global.xlsx
+++ b/Data Visualization/classement_global.xlsx
@@ -495,28 +495,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5814</v>
+        <v>5838</v>
       </c>
       <c r="D2" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="E2" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F2" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G2" t="n">
         <v>218</v>
       </c>
       <c r="H2" t="n">
-        <v>1865</v>
+        <v>1874</v>
       </c>
       <c r="I2" t="n">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="J2" t="n">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3">
@@ -529,25 +529,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5664</v>
+        <v>5682</v>
       </c>
       <c r="D3" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E3" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F3" t="n">
         <v>247</v>
       </c>
       <c r="G3" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H3" t="n">
-        <v>1754</v>
+        <v>1760</v>
       </c>
       <c r="I3" t="n">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="J3" t="n">
         <v>672</v>
@@ -563,28 +563,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5160</v>
+        <v>5187</v>
       </c>
       <c r="D4" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E4" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F4" t="n">
         <v>274</v>
       </c>
       <c r="G4" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H4" t="n">
-        <v>1527</v>
+        <v>1539</v>
       </c>
       <c r="I4" t="n">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="J4" t="n">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5">
@@ -597,28 +597,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5014</v>
+        <v>5029</v>
       </c>
       <c r="D5" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E5" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F5" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G5" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H5" t="n">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="I5" t="n">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="J5" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6">
@@ -631,28 +631,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4981</v>
+        <v>5002</v>
       </c>
       <c r="D6" t="n">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="E6" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F6" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G6" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H6" t="n">
-        <v>1443</v>
+        <v>1452</v>
       </c>
       <c r="I6" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="J6" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4407</v>
+        <v>4416</v>
       </c>
       <c r="D8" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E8" t="n">
         <v>401</v>
       </c>
       <c r="F8" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G8" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H8" t="n">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="I8" t="n">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="J8" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +733,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4217</v>
+        <v>4241</v>
       </c>
       <c r="D9" t="n">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="E9" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F9" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G9" t="n">
         <v>343</v>
       </c>
       <c r="H9" t="n">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="I9" t="n">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="J9" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -767,28 +767,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4064</v>
+        <v>4094</v>
       </c>
       <c r="D10" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E10" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F10" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G10" t="n">
         <v>319</v>
       </c>
       <c r="H10" t="n">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="I10" t="n">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="J10" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3992</v>
+        <v>4004</v>
       </c>
       <c r="D11" t="n">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="E11" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F11" t="n">
         <v>300</v>
       </c>
       <c r="G11" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H11" t="n">
+        <v>1288</v>
+      </c>
+      <c r="I11" t="n">
         <v>1276</v>
       </c>
-      <c r="I11" t="n">
-        <v>1266</v>
-      </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -831,32 +831,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AJ Auxerre</t>
+          <t>Montpellier HSC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3743</v>
+        <v>3755</v>
       </c>
       <c r="D12" t="n">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="E12" t="n">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="F12" t="n">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G12" t="n">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="H12" t="n">
-        <v>1258</v>
+        <v>1275</v>
       </c>
       <c r="I12" t="n">
-        <v>1197</v>
+        <v>1331</v>
       </c>
       <c r="J12" t="n">
-        <v>61</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="13">
@@ -865,32 +865,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Montpellier HSC</t>
+          <t>AJ Auxerre</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3735</v>
+        <v>3746</v>
       </c>
       <c r="D13" t="n">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E13" t="n">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="F13" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G13" t="n">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="H13" t="n">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="I13" t="n">
-        <v>1327</v>
+        <v>1204</v>
       </c>
       <c r="J13" t="n">
-        <v>-59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -903,28 +903,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3717</v>
+        <v>3732</v>
       </c>
       <c r="D14" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E14" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F14" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G14" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H14" t="n">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="I14" t="n">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="J14" t="n">
-        <v>-88</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="15">
@@ -933,32 +933,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FC Lorient</t>
+          <t>Toulouse FC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3623</v>
+        <v>3642</v>
       </c>
       <c r="D15" t="n">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E15" t="n">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="F15" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G15" t="n">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="H15" t="n">
-        <v>1325</v>
+        <v>1199</v>
       </c>
       <c r="I15" t="n">
-        <v>1333</v>
+        <v>1239</v>
       </c>
       <c r="J15" t="n">
-        <v>-8</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="16">
@@ -967,32 +967,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Toulouse FC</t>
+          <t>FC Lorient</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3621</v>
+        <v>3635</v>
       </c>
       <c r="D16" t="n">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="E16" t="n">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="F16" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G16" t="n">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="H16" t="n">
-        <v>1191</v>
+        <v>1331</v>
       </c>
       <c r="I16" t="n">
-        <v>1235</v>
+        <v>1341</v>
       </c>
       <c r="J16" t="n">
-        <v>-44</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="17">
@@ -1005,28 +1005,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3378</v>
+        <v>3382</v>
       </c>
       <c r="D17" t="n">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="E17" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F17" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G17" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H17" t="n">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="I17" t="n">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="J17" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="18">
@@ -1039,28 +1039,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3307</v>
+        <v>3310</v>
       </c>
       <c r="D18" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E18" t="n">
         <v>363</v>
       </c>
       <c r="F18" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G18" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H18" t="n">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="I18" t="n">
-        <v>1234</v>
+        <v>1247</v>
       </c>
       <c r="J18" t="n">
-        <v>-55</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="19">
@@ -1073,25 +1073,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3254</v>
+        <v>3258</v>
       </c>
       <c r="D19" t="n">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="E19" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F19" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G19" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H19" t="n">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="I19" t="n">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="J19" t="n">
         <v>-16</v>
@@ -1107,25 +1107,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3197</v>
+        <v>3209</v>
       </c>
       <c r="D20" t="n">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="E20" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F20" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G20" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H20" t="n">
-        <v>1279</v>
+        <v>1286</v>
       </c>
       <c r="I20" t="n">
-        <v>1281</v>
+        <v>1288</v>
       </c>
       <c r="J20" t="n">
         <v>-2</v>
@@ -1141,28 +1141,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3152</v>
+        <v>3174</v>
       </c>
       <c r="D21" t="n">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="E21" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F21" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G21" t="n">
         <v>392</v>
       </c>
       <c r="H21" t="n">
-        <v>1245</v>
+        <v>1254</v>
       </c>
       <c r="I21" t="n">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="J21" t="n">
-        <v>-33</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="22">
@@ -1175,28 +1175,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3128</v>
+        <v>3136</v>
       </c>
       <c r="D22" t="n">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="E22" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F22" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G22" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H22" t="n">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="I22" t="n">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="J22" t="n">
-        <v>-10</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="23">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3085</v>
+        <v>3100</v>
       </c>
       <c r="D23" t="n">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="E23" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F23" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G23" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H23" t="n">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="I23" t="n">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="J23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1243,28 +1243,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3043</v>
+        <v>3055</v>
       </c>
       <c r="D24" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="E24" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F24" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G24" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H24" t="n">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="I24" t="n">
-        <v>1172</v>
+        <v>1179</v>
       </c>
       <c r="J24" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="25">
@@ -1277,28 +1277,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="D25" t="n">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="E25" t="n">
         <v>336</v>
       </c>
       <c r="F25" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G25" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H25" t="n">
         <v>1100</v>
       </c>
       <c r="I25" t="n">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="J25" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="26">
@@ -1345,28 +1345,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2844</v>
+        <v>2860</v>
       </c>
       <c r="D27" t="n">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="E27" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F27" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G27" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H27" t="n">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="I27" t="n">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="J27" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -1379,28 +1379,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2769</v>
+        <v>2784</v>
       </c>
       <c r="D28" t="n">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E28" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F28" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G28" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H28" t="n">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="I28" t="n">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="J28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2729</v>
+        <v>2741</v>
       </c>
       <c r="D29" t="n">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="E29" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F29" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G29" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H29" t="n">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="I29" t="n">
-        <v>1227</v>
+        <v>1235</v>
       </c>
       <c r="J29" t="n">
-        <v>-72</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="30">
@@ -1447,28 +1447,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2546</v>
+        <v>2556</v>
       </c>
       <c r="D30" t="n">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="E30" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F30" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G30" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H30" t="n">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="I30" t="n">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="J30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -1481,28 +1481,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2461</v>
+        <v>2473</v>
       </c>
       <c r="D31" t="n">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="E31" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F31" t="n">
         <v>335</v>
       </c>
       <c r="G31" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H31" t="n">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="I31" t="n">
-        <v>1200</v>
+        <v>1211</v>
       </c>
       <c r="J31" t="n">
-        <v>-29</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="32">
@@ -1515,28 +1515,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2445</v>
+        <v>2449</v>
       </c>
       <c r="D32" t="n">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="E32" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F32" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G32" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H32" t="n">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="I32" t="n">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="J32" t="n">
-        <v>-73</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="33">
@@ -1583,28 +1583,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2366</v>
+        <v>2376</v>
       </c>
       <c r="D34" t="n">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="E34" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F34" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G34" t="n">
         <v>338</v>
       </c>
       <c r="H34" t="n">
-        <v>1127</v>
+        <v>1137</v>
       </c>
       <c r="I34" t="n">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="J34" t="n">
-        <v>-71</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="35">
@@ -1617,25 +1617,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="D35" t="n">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="E35" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F35" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G35" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H35" t="n">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="I35" t="n">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="J35" t="n">
         <v>-152</v>
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="D36" t="n">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E36" t="n">
         <v>354</v>
       </c>
       <c r="F36" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G36" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H36" t="n">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="I36" t="n">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2254</v>
+        <v>2272</v>
       </c>
       <c r="D37" t="n">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="E37" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F37" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G37" t="n">
         <v>289</v>
       </c>
       <c r="H37" t="n">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="I37" t="n">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1787,28 +1787,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1849</v>
+        <v>1861</v>
       </c>
       <c r="D40" t="n">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="E40" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F40" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G40" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H40" t="n">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="I40" t="n">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="J40" t="n">
-        <v>-27</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="41">
@@ -1821,25 +1821,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1681</v>
+        <v>1693</v>
       </c>
       <c r="D41" t="n">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="E41" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F41" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G41" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H41" t="n">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="I41" t="n">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="J41" t="n">
         <v>74</v>
@@ -1953,32 +1953,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>US Boulogne</t>
+          <t>Red Star FC</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1164</v>
+        <v>1182</v>
       </c>
       <c r="D45" t="n">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="E45" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G45" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H45" t="n">
-        <v>776</v>
+        <v>804</v>
       </c>
       <c r="I45" t="n">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="J45" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="46">
@@ -1987,32 +1987,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Red Star FC</t>
+          <t>US Boulogne</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="D46" t="n">
-        <v>648</v>
+        <v>681</v>
       </c>
       <c r="E46" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F46" t="n">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="G46" t="n">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H46" t="n">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="I46" t="n">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="J46" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="47">
@@ -2059,28 +2059,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1129</v>
+        <v>1143</v>
       </c>
       <c r="D48" t="n">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="E48" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F48" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G48" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H48" t="n">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="I48" t="n">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="J48" t="n">
-        <v>-79</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="49">
@@ -2161,28 +2161,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="D51" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E51" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F51" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G51" t="n">
         <v>188</v>
       </c>
       <c r="H51" t="n">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="I51" t="n">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="J51" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="52">
@@ -2263,28 +2263,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="D54" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E54" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F54" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G54" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H54" t="n">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="I54" t="n">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="J54" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="55">
@@ -2297,28 +2297,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>758</v>
+        <v>778</v>
       </c>
       <c r="D55" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E55" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F55" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G55" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H55" t="n">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="I55" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="J55" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -2331,28 +2331,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D56" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E56" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F56" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G56" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H56" t="n">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="I56" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="J56" t="n">
-        <v>-57</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="57">
@@ -2501,28 +2501,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D61" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E61" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F61" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H61" t="n">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="I61" t="n">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="J61" t="n">
-        <v>-83</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="62">
@@ -2637,28 +2637,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="D65" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E65" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F65" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G65" t="n">
         <v>113</v>
       </c>
       <c r="H65" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="I65" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J65" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -2667,32 +2667,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Étoile FC</t>
+          <t>US Concarneau</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D66" t="n">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="E66" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F66" t="n">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G66" t="n">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="H66" t="n">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="I66" t="n">
-        <v>463</v>
+        <v>363</v>
       </c>
       <c r="J66" t="n">
-        <v>-54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -2701,32 +2701,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>US Concarneau</t>
+          <t>Étoile FC</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D67" t="n">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="E67" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F67" t="n">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="G67" t="n">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="H67" t="n">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="I67" t="n">
-        <v>359</v>
+        <v>463</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="68">
@@ -2769,32 +2769,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AS Cherbourg</t>
+          <t>FC Annecy</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D69" t="n">
-        <v>342</v>
+        <v>190</v>
       </c>
       <c r="E69" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F69" t="n">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="G69" t="n">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="H69" t="n">
-        <v>380</v>
+        <v>242</v>
       </c>
       <c r="I69" t="n">
-        <v>417</v>
+        <v>235</v>
       </c>
       <c r="J69" t="n">
-        <v>-37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2803,32 +2803,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FC Chambly</t>
+          <t>AS Cherbourg</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D70" t="n">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="E70" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F70" t="n">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="G70" t="n">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H70" t="n">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="I70" t="n">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="J70" t="n">
-        <v>-33</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="71">
@@ -2837,32 +2837,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FC Annecy</t>
+          <t>FC Chambly</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D71" t="n">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="E71" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F71" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G71" t="n">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="H71" t="n">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="I71" t="n">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="72">
@@ -2977,28 +2977,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D75" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E75" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F75" t="n">
         <v>86</v>
       </c>
       <c r="G75" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H75" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I75" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="J75" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
@@ -3585,32 +3585,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Thouars Foot 79</t>
+          <t>FC Versailles</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D93" t="n">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E93" t="n">
+        <v>40</v>
+      </c>
+      <c r="F93" t="n">
+        <v>34</v>
+      </c>
+      <c r="G93" t="n">
         <v>36</v>
       </c>
-      <c r="F93" t="n">
-        <v>43</v>
-      </c>
-      <c r="G93" t="n">
-        <v>67</v>
-      </c>
       <c r="H93" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I93" t="n">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="J93" t="n">
-        <v>-52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -3619,32 +3619,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Olympique Alès-en-Cévennes</t>
+          <t>Thouars Foot 79</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D94" t="n">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E94" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F94" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G94" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="H94" t="n">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="I94" t="n">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="J94" t="n">
-        <v>-6</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="95">
@@ -3653,32 +3653,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FC Versailles</t>
+          <t>Olympique Alès-en-Cévennes</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D95" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E95" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F95" t="n">
         <v>33</v>
       </c>
       <c r="G95" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H95" t="n">
         <v>133</v>
       </c>
       <c r="I95" t="n">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="J95" t="n">
-        <v>13</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="96">
@@ -3728,7 +3728,7 @@
         <v>138</v>
       </c>
       <c r="D97" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E97" t="n">
         <v>33</v>
@@ -3737,16 +3737,16 @@
         <v>39</v>
       </c>
       <c r="G97" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H97" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I97" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="J97" t="n">
-        <v>-5</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="98">
@@ -4133,25 +4133,25 @@
         </is>
       </c>
       <c r="C109" t="n">
+        <v>78</v>
+      </c>
+      <c r="D109" t="n">
+        <v>77</v>
+      </c>
+      <c r="E109" t="n">
+        <v>16</v>
+      </c>
+      <c r="F109" t="n">
+        <v>30</v>
+      </c>
+      <c r="G109" t="n">
+        <v>31</v>
+      </c>
+      <c r="H109" t="n">
         <v>73</v>
       </c>
-      <c r="D109" t="n">
-        <v>73</v>
-      </c>
-      <c r="E109" t="n">
-        <v>15</v>
-      </c>
-      <c r="F109" t="n">
-        <v>28</v>
-      </c>
-      <c r="G109" t="n">
-        <v>30</v>
-      </c>
-      <c r="H109" t="n">
-        <v>67</v>
-      </c>
       <c r="I109" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J109" t="n">
         <v>-24</v>
@@ -4265,32 +4265,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ES Uzès Pont du Gard</t>
+          <t>Le Puy Foot 43</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D113" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E113" t="n">
         <v>15</v>
       </c>
       <c r="F113" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G113" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H113" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I113" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J113" t="n">
-        <v>-52</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="114">
@@ -4299,32 +4299,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Le Puy Foot 43</t>
+          <t>ES Uzès Pont du Gard</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D114" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F114" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G114" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H114" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I114" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J114" t="n">
-        <v>-33</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="115">
@@ -4337,25 +4337,25 @@
         </is>
       </c>
       <c r="C115" t="n">
+        <v>59</v>
+      </c>
+      <c r="D115" t="n">
+        <v>42</v>
+      </c>
+      <c r="E115" t="n">
+        <v>16</v>
+      </c>
+      <c r="F115" t="n">
+        <v>11</v>
+      </c>
+      <c r="G115" t="n">
+        <v>15</v>
+      </c>
+      <c r="H115" t="n">
         <v>54</v>
       </c>
-      <c r="D115" t="n">
-        <v>38</v>
-      </c>
-      <c r="E115" t="n">
-        <v>15</v>
-      </c>
-      <c r="F115" t="n">
-        <v>9</v>
-      </c>
-      <c r="G115" t="n">
-        <v>14</v>
-      </c>
-      <c r="H115" t="n">
-        <v>50</v>
-      </c>
       <c r="I115" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J115" t="n">
         <v>6</v>
@@ -4881,28 +4881,28 @@
         </is>
       </c>
       <c r="C131" t="n">
+        <v>13</v>
+      </c>
+      <c r="D131" t="n">
         <v>10</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6</v>
       </c>
       <c r="E131" t="n">
         <v>3</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
+        <v>12</v>
+      </c>
+      <c r="I131" t="n">
         <v>9</v>
       </c>
-      <c r="I131" t="n">
-        <v>4</v>
-      </c>
       <c r="J131" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
